--- a/ResultadoEleicoesDistritos/ÉVORA_REDONDO.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_REDONDO.xlsx
@@ -597,64 +597,64 @@
         <v>1667</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="J2" t="n">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>71</v>
+      </c>
+      <c r="T2" t="n">
+        <v>107</v>
+      </c>
+      <c r="U2" t="n">
         <v>5</v>
       </c>
-      <c r="S2" t="n">
-        <v>73</v>
-      </c>
-      <c r="T2" t="n">
-        <v>135</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10</v>
-      </c>
       <c r="V2" t="n">
-        <v>1107</v>
+        <v>1047</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
